--- a/biology/Botanique/Liste_de_plantes_alimentaires/Liste_de_plantes_alimentaires.xlsx
+++ b/biology/Botanique/Liste_de_plantes_alimentaires/Liste_de_plantes_alimentaires.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste de plantes alimentaires recense les principales plantes qui entrent généralement à grande échelle dans la composition de l'alimentation humaine. 
 </t>
@@ -511,11 +523,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon les estimations difficiles à effectuer, sur les près de 400 000 espèces de plantes recensées dans le monde, 30 000 sont régulièrement exploitées par l'homme [1] (parmi ces plantes utiles, 17 810 végétaux entrent dans la composition de médicaments, plus de 11 000 plantes servent de matériaux[2] et 5 538 servent comme nourriture humaine)[3]. Mais il y aurait 80 000 espèces comestibles (près de 20 % des espèces, dont 50 assurent à elles seules 90 % de l'alimentation humaine[4]). 10 000 espèces sont toxiques, soit 4 % des espèces végétales recensées[5] mais seul un petit nombre de plantes sont impliquées dans des intoxications sérieuses.
-Ainsi, François Couplan évalue qu'en Europe[6], sur un total d'environ 12 000 espèces végétales (dont 1 600 comestibles), 4 % peuvent éventuellement provoquer des troubles de santé et une cinquantaine seulement (0,4 %) peuvent s'avérer véritablement dangereuses[7]. La FAO mentionne qu'environ 30 000 espèces sont comestibles et qu'environ 7 000 espèces végétales sont connues pour avoir été cultivées ou récoltées comme nourriture, à un moment donné ou à un autre[1].
-La France métropolitaine comprend plus de 6 000 espèces végétales (sans compter les 30 000 espèces de macro-champignons)[8],[9] qui se répartissent approximativement en 4 900 espèces indigènes et au moins 1 300 espèces introduites par l'Homme (volontairement ou accidentellement)[10]. Sur ces 6 000 plantes sauvages, plus de 1 000 sont comestibles, 300 ont une toxicité plus ou moins marquée et une vingtaine sont mortelles[11] (Aconit napel, laurier rose, grande cigüe, lierre, gui, chèvrefeuille des haies, colchique, datura, jusquiame)[12].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon les estimations difficiles à effectuer, sur les près de 400 000 espèces de plantes recensées dans le monde, 30 000 sont régulièrement exploitées par l'homme  (parmi ces plantes utiles, 17 810 végétaux entrent dans la composition de médicaments, plus de 11 000 plantes servent de matériaux et 5 538 servent comme nourriture humaine). Mais il y aurait 80 000 espèces comestibles (près de 20 % des espèces, dont 50 assurent à elles seules 90 % de l'alimentation humaine). 10 000 espèces sont toxiques, soit 4 % des espèces végétales recensées mais seul un petit nombre de plantes sont impliquées dans des intoxications sérieuses.
+Ainsi, François Couplan évalue qu'en Europe, sur un total d'environ 12 000 espèces végétales (dont 1 600 comestibles), 4 % peuvent éventuellement provoquer des troubles de santé et une cinquantaine seulement (0,4 %) peuvent s'avérer véritablement dangereuses. La FAO mentionne qu'environ 30 000 espèces sont comestibles et qu'environ 7 000 espèces végétales sont connues pour avoir été cultivées ou récoltées comme nourriture, à un moment donné ou à un autre.
+La France métropolitaine comprend plus de 6 000 espèces végétales (sans compter les 30 000 espèces de macro-champignons), qui se répartissent approximativement en 4 900 espèces indigènes et au moins 1 300 espèces introduites par l'Homme (volontairement ou accidentellement). Sur ces 6 000 plantes sauvages, plus de 1 000 sont comestibles, 300 ont une toxicité plus ou moins marquée et une vingtaine sont mortelles (Aconit napel, laurier rose, grande cigüe, lierre, gui, chèvrefeuille des haies, colchique, datura, jusquiame).
 </t>
         </is>
       </c>
@@ -544,14 +558,90 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>80 % de la nourriture d'origine végétale est assurée par seulement 17 familles botaniques dont les principales sont les Poaceae (graminées), les Fabaceae (légumineuses) et les Brassicaceae (crucifères). Il faut y ajouter une vingtaine d'autres familles dont les Rosaceae et leurs 150 espèces de Prunus comestibles (abricotier, amandier, cerisier, pêcher, prunier) ainsi que le Malus (pommiers)[13].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">80 % de la nourriture d'origine végétale est assurée par seulement 17 familles botaniques dont les principales sont les Poaceae (graminées), les Fabaceae (légumineuses) et les Brassicaceae (crucifères). Il faut y ajouter une vingtaine d'autres familles dont les Rosaceae et leurs 150 espèces de Prunus comestibles (abricotier, amandier, cerisier, pêcher, prunier) ainsi que le Malus (pommiers).
 Beaucoup d'espèces peuvent avoir plusieurs utilisations selon les différents parties des plantes (feuilles , graines, tiges, fleurs, racines, tubercules,... Dans les listes ci-dessous elles ne sont généralement citées qu'une seule fois selon leur utilisation principale.
-Céréales
-(Poacées sauf exceptions)
-Céréales majeures
-Maïs grain, production mondiale 2002 : 602,6 millions de tonnes
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_alimentaires</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_alimentaires</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Céréales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(Poacées sauf exceptions)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_alimentaires</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_alimentaires</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Céréales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Céréales majeures</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Maïs grain, production mondiale 2002 : 602,6 millions de tonnes
 Maïs, Zea mays L., Poacées
 Riz, production mondiale 2002 : 576,3 millions de tonnes
 Riz, Oryza sativa L.,Poacées
@@ -562,9 +652,47 @@
 Blé dur, Triticum turgidum L. subsp. durum (Desf.) Husn, Poacées
 Amidonnier, Triticum turgidum L. subsp. dicoccum (Schrank ex Schübl.) Thell., Poacées
 Blé de Pologne ou Kamut, Triticum turgidum L. subsp. turanicum (Jakubz.) Á. Löve &amp; D. Löve
-Engrain, Triticum monococcum L. subsp. monococcum, Poacées
-Céréales secondaires
-Orge, production mondiale 2002 : 132,2 millions de tonnes
+Engrain, Triticum monococcum L. subsp. monococcum, Poacées</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_alimentaires</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_alimentaires</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Céréales</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Céréales secondaires</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Orge, production mondiale 2002 : 132,2 millions de tonnes
 Orge commune ou orge à 2 rangs (Hordeum vulgare L. subsp. vulgare, Poacées
 Escourgeon ou orge à 6 rangs, Hordeum hexastichon, Poacées
 Sorgho grain, production mondiale 2002 : 54,5 millions de tonnes
@@ -582,9 +710,47 @@
 Triticale (×Triticosecale Wittm. ex A. Camus, Poacées
 Sarrasin, production mondiale 2002 : 2,1 millions de tonnes
 Sarrasin ou blé noir, Fagopyrum esculentum Moench., Polygonacées
-Sarrasin de Tartarie, Fagopyrum tartaricum (L.) Gaertn., Polygonacées
-Céréales mineures et plantes assimilées
-Fonio, production mondiale 2002 : 252 000 tonnes
+Sarrasin de Tartarie, Fagopyrum tartaricum (L.) Gaertn., Polygonacées</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_alimentaires</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_alimentaires</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Céréales</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Céréales mineures et plantes assimilées</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fonio, production mondiale 2002 : 252 000 tonnes
 Fonio blanc, Digitaria exilis (Kippist) Stapf
 Fonio noir, Digitaria iburua
 Fonio à grosses graines, Digitaria deflexa
@@ -600,9 +766,47 @@
 Teff, Eragrostis tef (Zuccagni) Trotter
 Riz sauvage, Zizania palustris L.
 Voir aussi Céréales
-Plantes à féculents
-Légumineuses Fabacées
-Arachide, Arachis hypogaea L.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_alimentaires</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_alimentaires</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes à féculents</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Légumineuses Fabacées</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arachide, Arachis hypogaea L.
 Dolique mongette, Vigna unguiculata (L.) Walp. subsp. cylindrica (L.) Verdc.
 Dolique d'Égypte ou antaque Lablab purpureus (L.) Sweet
 Fève, Vicia faba L
@@ -626,8 +830,47 @@
 Sainfoin d'Espagne, Hedysarum coronarium L.
 Soja ou soya, Glycine soja Siebold &amp; Zucc.
 Voir aussi Légumes secs
-Autres plantes à féculents
-Arbre à pain, Artocarpus altilis (Parkinson) Fosberg, Moracées
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_alimentaires</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_alimentaires</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Plantes à féculents</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Autres plantes à féculents</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Arbre à pain, Artocarpus altilis (Parkinson) Fosberg, Moracées
 Arrow-root, herbe aux flèches (Maranta arundinacea L. Marantacées
 Bananier plantain, Musa ×paradisiaca L., Musacées
 Betterave, Beta vulgaris L. subsp. vulgaris, Chénopodiacée
@@ -653,10 +896,47 @@
 Tacca ou arrow-root de Tahiti, Tacca leontopetaloides (L.) Kuntze, Dioscoréacées
 Taro, Colocasia esculenta Schott, Aracées
 Topinambour, Helianthus tuberosus L., Astéracées
-Ulluco, Ullucus tuberosus Caldas, Basellacées
-Plantes oléagineuses
-Plantes à graines oléagineuses
-Coton (graines), production mondiale : 57,3 millions de tonnes
+Ulluco, Ullucus tuberosus Caldas, Basellacées</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_alimentaires</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_alimentaires</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Plantes oléagineuses</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Plantes à graines oléagineuses</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Coton (graines), production mondiale : 57,3 millions de tonnes
 Coton, Gossypium spp. L., Malvacées
 Arachide, production mondiale 2002 : 34 millions de tonnes
 Arachide, Arachis hypogaea L. Fabacées
@@ -681,9 +961,47 @@
 Pérille ou shiso, Perilla frutescens L. var. crispa Decaisne, Lamiacées
 Radis, Raphanus sativus Brassicacées
 Radis noir, Raphanus sativus var. niger (Mill.) J.Kern.
-Roquette, Eruca sativa, Brassicacées
-Arbres oléifères
-Palmier à huile, production mondiale 2002 : 136 millions de tonnes
+Roquette, Eruca sativa, Brassicacées</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_alimentaires</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_alimentaires</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Plantes oléagineuses</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Arbres oléifères</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Palmier à huile, production mondiale 2002 : 136 millions de tonnes
 Palmier à huile, Elaeis oleifera (Kunth) Cortés, Arécacées
 Olivier, production mondiale 2002 : 13,9 millions de tonnes
 Olivier, Olea europaea L., Oléacées
@@ -694,10 +1012,47 @@
 Hêtre, Fagus sylvatica L., Fagacées
 Noisetier, Corylus avellana L., Bétulacées
 Noyer, Juglans regia L., Juglandacées
-Moringa, Moringa Oleifera L., Moringacées
-Plantes fruitières
-Fruits frais des pays tempérés
-Abricotier, Prunus armeniaca L., Rosacées
+Moringa, Moringa Oleifera L., Moringacées</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_alimentaires</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_alimentaires</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Plantes fruitières</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Fruits frais des pays tempérés</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abricotier, Prunus armeniaca L., Rosacées
 Asiminier trilobé, Asimina triloba (L.) Dunal, Annonaceae
 Azérolier, Crataegus azarolus L., Rosacées
 Bibassier ou néflier du Japon, Eriobotrya japonica (Thunb.) Lindl., Rosacées
@@ -733,8 +1088,47 @@
 Sorbier des oiseleurs, Sorbus aucuparia L., Rosacées
 Vigne, Vitis vinifera L., Vitacées
 Voir aussi Liste des arbres fruitiers, Liste de fruits Liste des cépages du monde
-Agrumes
-(Rutacées)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_alimentaires</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_alimentaires</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Plantes fruitières</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Agrumes</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(Rutacées)
 Bergamotier, Citrus aurantium ssp. aurantiifolia var. Bergamia Riss.,
 Bigaradier ou oranger amer, Citrus aurantium ssp. amara Engl.
 Bigaradier à feuille de myrte, Citrus aurantium var. myrtifolia Raf.
@@ -768,8 +1162,47 @@
 Ugli (Pomélo × Mandarine)
 Winola (Mandarine × Minnéola)
 Voir aussi  Agrume
-Autres plantes à fruits frais des pays tropicaux
-Abricot-Pays, Mammea americana L., Clusiacées
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_alimentaires</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_alimentaires</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Plantes fruitières</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Autres plantes à fruits frais des pays tropicaux</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Abricot-Pays, Mammea americana L., Clusiacées
 Acerola, Malpighia emarginata, Malpighiacées
 Anacardier, Anacardum occidentale L., Anacardiacées
 Ananas, Ananas comosus (L.) Merr., Broméliacées
@@ -829,9 +1262,47 @@
 Sapotier ou mamey, Pouteria sapota (Jacq.) H. E. Moore &amp; Stearn, Sapotacées
 Sapotier noir, Diospyros digyna (Jacq., Ébénacées
 Sapotillier, Manilkara zapota (L.) P. Royen, Sapotacées
-Tamarinier, Tamarindus indica L., Fabacées
-Fruits secs
-Anacardier ou pommier de Cajou Anacardium occidentale L., Anacardiacées
+Tamarinier, Tamarindus indica L., Fabacées</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_alimentaires</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_alimentaires</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Plantes fruitières</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Fruits secs</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Anacardier ou pommier de Cajou Anacardium occidentale L., Anacardiacées
 Amandier Prunus amygdalus Batsch., Rosacées
 Almondette, Buchanania lanzan, Anacardiacées
  Amande de Java, Nangaille; Canarium indicum, Burseracées
@@ -853,10 +1324,47 @@
 Pin pignon ou pin parasol Pinus pinea L. Pinacées
 Pacanier Carya pekan Engl. et Graebn., Juglandacées
 Pistachier Pistacia vera L., Anacardiacées
-Noisette indienne Caryocar nuciferum, Caryocaracées
-Plantes potagères
-Légumes
-Amaranthe Amaranthus spp., Amaranthacées
+Noisette indienne Caryocar nuciferum, Caryocaracées</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_alimentaires</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_alimentaires</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Plantes potagères</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Légumes</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Amaranthe Amaranthus spp., Amaranthacées
 Arroche Atriplex hortensis L., Chénopodiacées
 Arroche-fraise Blitum capitatum L., Chénopodiacées
 Asperge Asparagus officinalis L., Asparagacées
@@ -917,7 +1425,7 @@
 Crosne du Japon  Stachys sieboldi L., Lamiacées
 Daïkon Raphanus sativus L. var acanthiformis Makino, Brassicacées
 Dolique-asperge Vigna unguiculata subsp. sesquipedalis, Fabacées
-Echalote Allium cepa L. var. aggregatum G. Don.,, Liliacées
+Echalote Allium cepa L. var. aggregatum G. Don. Liliacées
 Épinard Spinacia oleracea L., Chénopodiacées
 Fenouil bulbeux Foeniculum vulgare var. dulce Thell, Apiacées
 Fève Vicia faba L., Fabacées
@@ -987,9 +1495,47 @@
 Tomatillo du Mexique Physalis ixocarpa A. Bretero, Solanacées
 Topinambour Helianthus tuberosus L., Astéracées
 Tournesol géant Helianthus annuus L., Astéracées
-Ulluque Ullucus tuberosusLozano, Basellacées
-Légumes tropicaux
-Bambou (pousses), Phyllostachys spp., Poaceae
+Ulluque Ullucus tuberosusLozano, Basellacées</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_alimentaires</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_alimentaires</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Plantes potagères</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Légumes tropicaux</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bambou (pousses), Phyllostachys spp., Poaceae
 Babassou (chou palmiste), Attalea speciosa Mart. ex Spreng., Arecaceae
 Banane plantain, Musa ×paradisiaca L. Musaceae
 Calebassier, Lagenaria siceraria (Molina) Standl., Cucurbitaceae
@@ -1006,8 +1552,47 @@
 Momordique, Momordica charantia (L.), Cucurbitaceae
 Neptunia, Neptunia oleacea, Mimoseae
 Voir aussi Légumes, légumes verts, salade
-Plantes condimentaires
-Absinthe, Artemisia absinthium L., Astéracées
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_alimentaires</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_alimentaires</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Plantes potagères</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Plantes condimentaires</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Absinthe, Artemisia absinthium L., Astéracées
 Agastache anisée, Agastache foeniculum O. Kuntze, Lamiacées
 Agastache de Corée, Agastache rugosa O. Kuntze, Lamiacées
 Agastache du Mexique, Agastache mexicana Kunth Lindley et Epple, Lamiacées
@@ -1071,13 +1656,84 @@
 Thym des Antilles, Plectranthus amboinicus (Loureiro) Launert, Lamiacées
 Raifort, Armoracia rusticana Gaertner, Mey, Scherbius, Brassicacées
 Verveine citronnelle, Aloysia citrodora Parau, Verbenaceae
-Wasabi, Wasabia japonica (Miq.) Matsum., Brassicacées
-Plantes à épices
-Voir aussi Liste des épices
-Cerisier de Sainte-Lucie, Prunus mahaleb L., Rosacées
-Plantes à boissons
-Plantes à boissons non fermentées
-Infusions à caféine et succédanés
+Wasabi, Wasabia japonica (Miq.) Matsum., Brassicacées</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_alimentaires</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_alimentaires</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Plantes à épices</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Voir aussi Liste des épices
+Cerisier de Sainte-Lucie, Prunus mahaleb L., Rosacées</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_alimentaires</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_alimentaires</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Plantes à boissons</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Plantes à boissons non fermentées</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Infusions à caféine et succédanés
 Caféier d'Arabie, Coffea arabica L., Rubiacées
 Caféier robusta, Coffea canephora Pierre ex A. Froehner, Rubiacées
 Théier, Camellia sinensis (L.) Kuntze, Théacées
@@ -1102,9 +1758,47 @@
 Oranger amer ou bigaradier, Citrus aurantium L., Rutacées
 Réglisse, Glycyrrhiza glabra, Fabacées
 Tilleul, Tilia ×europaea L., Malvacées
-Verveine officinale, Verbena officinalis L., Verbénacées
-Plantes à boissons fermentées
-Agaves à pulque -
+Verveine officinale, Verbena officinalis L., Verbénacées</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_alimentaires</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_alimentaires</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Plantes à boissons</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Plantes à boissons fermentées</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Agaves à pulque -
 Agave salmiana Otto ex Salm-Dyck, Agavacées
 Agave atrovirens Karw. ex Salm-Dyck, Agavacées
 Agave tequilana F. A. C. Weber, Agavacées
@@ -1127,9 +1821,43 @@
 Vitis rupestris Scheele
 Vitis labrusca L.
 Vitis riparia Michx.
-Vitis mustangensis Buckley
-Plantes sauvages comestibles
-Ail des vignes, Allium vineale L., Alliacées
+Vitis mustangensis Buckley</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_alimentaires</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_alimentaires</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Plantes sauvages comestibles</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Ail des vignes, Allium vineale L., Alliacées
 Airelle rouge, Vaccinium vitis-idaea L., Éricacées
 Arbousier, Arbutus unedo L. Éricacées
 Grande Berce, Hearcleum spondylium, Apiacées
@@ -1149,9 +1877,43 @@
 Prunellier, Prunus spinosa, Rosacées
 Salicorne, Salicornia herbacea, Chénopodiacées
 Salsifis des prés, Tragopogon pratensis L., Astéracées
-Sureau noir, Sambucus nigra, Caprifoliacées
-Algues alimentaires
-Agar-agar, Gelidium amansii Kutz,
+Sureau noir, Sambucus nigra, Caprifoliacées</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_alimentaires</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_alimentaires</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Algues alimentaires</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Agar-agar, Gelidium amansii Kutz,
 Chondrus crispé ou lichen caragheen, Chondrus crispus  Rhodophycées
 Cochayuyo, Durvillaea antarctica, Phéophycées
 Dulse, Palmaria palmata, Palmariacées, Rhodophycées
